--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62573-2025</t>
+          <t>A 31015-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46007.73069444444</v>
+        <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,17 +803,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -828,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -837,6 +842,101 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka
+Ullticka
+Blodticka
+Bronshjon
+Jättesvampmal
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62573-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46007.73069444444</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Slåtterfibbla
@@ -847,91 +947,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 62642-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>46008.37217592593</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grön aspvedbock
 Björksplintborre
@@ -942,128 +1042,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31015-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka
-Ullticka
-Blodticka
-Bronshjon
-Jättesvampmal
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,14 +1168,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 12620-2022</t>
+          <t>A 34717-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44638</v>
+        <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1215,127 +1215,127 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 12620-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 34717-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 43308-2024</t>
+          <t>A 34721-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45568</v>
+        <v>45848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,22 +1533,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1563,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1573,204 +1568,209 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 36366-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 36366-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>46007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,14 +1949,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54703-2024</t>
+          <t>A 61363-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45618</v>
+        <v>44915</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,16 +1969,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2003,122 +2003,122 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,14 +2214,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>11.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2268,45 +2268,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44277</v>
+        <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2353,45 +2353,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44952</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,22 +2403,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2433,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2443,31 +2438,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
@@ -2481,7 +2476,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2564,14 +2559,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2584,13 +2579,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2618,45 +2613,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45834</v>
+        <v>44952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,18 +2663,23 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,14 +3800,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 18091-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45870</v>
+        <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3857,14 +3857,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45870</v>
+        <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3876,13 +3876,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3919,14 +3914,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45870</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,13 +3933,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3981,14 +3971,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18091-2022</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44684</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4001,7 +3991,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4038,14 +4028,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44747</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4048,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4095,14 +4085,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45716</v>
+        <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4105,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4152,14 +4142,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44565</v>
+        <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4173,11 +4163,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4214,14 +4204,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4234,7 +4224,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4271,14 +4261,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45518</v>
+        <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4291,7 +4281,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4328,14 +4318,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45387</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4348,7 +4338,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13.7</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4385,14 +4375,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44272</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4404,13 +4394,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4447,14 +4432,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44851</v>
+        <v>44565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4466,8 +4451,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4494,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45848</v>
+        <v>45756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4523,8 +4513,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4556,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4580,13 +4575,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4623,14 +4613,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45476</v>
+        <v>44915</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4642,13 +4632,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4685,14 +4670,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44915</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4704,8 +4689,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4742,14 +4732,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44915</v>
+        <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4819,7 +4809,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4856,14 +4846,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45476</v>
+        <v>44935</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4875,13 +4865,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4918,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46002</v>
+        <v>44917</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4938,7 +4923,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4975,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4994,13 +4979,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5037,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44673</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5056,8 +5036,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5094,14 +5079,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5113,8 +5098,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5151,14 +5141,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44920</v>
+        <v>45842</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5170,8 +5160,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5208,14 +5203,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44917</v>
+        <v>45842</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5227,8 +5222,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46008</v>
+        <v>45842</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5284,8 +5284,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45953</v>
+        <v>45397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5342,7 +5347,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>13.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5379,14 +5384,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45756</v>
+        <v>45859</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5398,13 +5403,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46008</v>
+        <v>45861</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5460,8 +5460,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5498,14 +5503,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44952</v>
+        <v>45953</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5517,13 +5522,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5560,14 +5560,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,8 +5579,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45113</v>
+        <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5637,7 +5642,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5674,14 +5679,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44924</v>
+        <v>45870</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5699,7 +5704,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5736,14 +5741,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45166</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5756,7 +5761,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5793,14 +5798,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>44673</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5813,7 +5818,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5850,14 +5855,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5875,7 +5880,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5912,14 +5917,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44583</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5937,7 +5942,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5974,14 +5979,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45716</v>
+        <v>44272</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5993,8 +5998,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6031,14 +6041,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6050,8 +6060,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6088,14 +6103,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44673</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6108,7 +6123,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6145,14 +6160,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44905</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6164,13 +6179,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6207,14 +6217,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45719</v>
+        <v>45716</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6227,7 +6237,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6264,14 +6274,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44673</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6284,7 +6294,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6321,14 +6331,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45397</v>
+        <v>46002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6341,7 +6351,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>13.6</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6378,14 +6388,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44915</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6398,7 +6408,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6435,14 +6445,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44951</v>
+        <v>45499</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6456,11 +6466,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6497,14 +6507,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44951</v>
+        <v>46008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6516,13 +6526,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6559,14 +6564,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45082</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6579,7 +6584,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.1</v>
+        <v>10.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6616,14 +6621,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44677</v>
+        <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6636,7 +6641,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6673,14 +6678,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>45113</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6693,7 +6698,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6730,14 +6735,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6750,7 +6755,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6787,14 +6792,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45719</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6806,13 +6811,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6849,14 +6849,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6868,8 +6868,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>11.2</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6913,7 +6918,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6963,14 +6968,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44935</v>
+        <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6983,7 +6988,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7020,14 +7025,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45166</v>
+        <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7039,8 +7044,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7077,14 +7087,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45499</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7096,13 +7106,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7139,14 +7144,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7159,7 +7164,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7196,14 +7201,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45155</v>
+        <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7215,8 +7220,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7253,14 +7263,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45428</v>
+        <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7278,7 +7288,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7315,14 +7325,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45540</v>
+        <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7334,8 +7344,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7372,14 +7387,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7392,7 +7407,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>13.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7429,14 +7444,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7449,7 +7464,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7486,14 +7501,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7505,8 +7520,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7543,14 +7563,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7563,7 +7583,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7600,14 +7620,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44565</v>
+        <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7619,13 +7639,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7662,14 +7677,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7682,7 +7697,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7719,14 +7734,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45842</v>
+        <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7740,11 +7755,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7781,14 +7796,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45842</v>
+        <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7800,13 +7815,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7843,14 +7853,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45842</v>
+        <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7862,13 +7872,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7905,14 +7910,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45859</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7925,7 +7930,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7962,14 +7967,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45861</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7981,13 +7986,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45568</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>46007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44915</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45618</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44915</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44935</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44917</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>45476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45842</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45842</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45842</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45859</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45861</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45953</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>45870</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45166</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44673</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44272</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>45716</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>46002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45499</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>46008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45113</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45719</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45568</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>46007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44915</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45618</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44915</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45848</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44673</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44935</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44917</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>45476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45842</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45842</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45842</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45859</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45861</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45953</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>45870</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45166</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44673</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44272</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>45716</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>46002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45499</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>46008</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45113</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45719</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31015-2024</t>
+          <t>A 62573-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45499</v>
+        <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,23 +803,18 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -833,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -842,6 +837,197 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Slåtterfibbla
+Svartvit flugsnappare
+Ärtsångare
+Vårärt
+Större brunfladdermus
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62642-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46008.37217592593</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grön aspvedbock
+Björksplintborre
+Bronshjon
+Dvärgtufs
+Granbarkgnagare
+Mindre märgborre
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31015-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka
@@ -852,218 +1038,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62573-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46007.73069444444</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Slåtterfibbla
-Svartvit flugsnappare
-Ärtsångare
-Vårärt
-Större brunfladdermus
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62642-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46008.37217592593</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grön aspvedbock
-Björksplintborre
-Bronshjon
-Dvärgtufs
-Granbarkgnagare
-Mindre märgborre
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>45848</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45868</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,14 +1686,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 43308-2024</t>
+          <t>A 31523-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45568</v>
+        <v>44775.22490740741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,22 +1705,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1735,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1745,218 +1740,223 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 62578-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>46007</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>3.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Fällmossa
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 61363-2022</t>
+          <t>A 54703-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44915</v>
+        <v>45618</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,16 +1969,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2003,122 +2003,122 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp
 Skuggblåslav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 54703-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,14 +2214,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>11.8</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2268,31 +2268,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,14 +2384,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>44952</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,18 +2403,23 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2438,45 +2443,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>44277</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2488,19 +2493,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>15.3</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2528,45 +2528,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44277</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,14 +2578,19 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>15.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2613,45 +2618,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44952</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,22 +2668,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>11.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,14 +3391,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 865-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 865-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,14 +3914,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>45716</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44272</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3990,8 +3990,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4028,14 +4033,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44851</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4053,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4085,14 +4090,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45155</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4104,8 +4109,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4142,14 +4152,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44951</v>
+        <v>45476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4163,11 +4173,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4204,14 +4214,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45518</v>
+        <v>44915</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4224,7 +4234,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4261,14 +4271,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45716</v>
+        <v>45476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4280,8 +4290,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4318,14 +4333,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4337,8 +4352,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4375,14 +4395,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44673</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4415,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4439,7 +4459,7 @@
         <v>44565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4494,14 +4514,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45756</v>
+        <v>44917</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4513,13 +4533,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4556,14 +4571,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44915</v>
+        <v>45756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4575,8 +4590,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4613,14 +4633,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44915</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4633,7 +4653,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4670,14 +4690,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45842</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4695,7 +4715,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4732,14 +4752,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4751,8 +4771,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4789,14 +4814,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44673</v>
+        <v>44952</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4808,8 +4833,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4846,14 +4876,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44935</v>
+        <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4865,8 +4895,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4938,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44917</v>
+        <v>45859</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4923,7 +4958,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4960,14 +4995,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4979,8 +5014,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5057,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45870</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5036,13 +5076,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5079,14 +5114,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45476</v>
+        <v>45870</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5104,7 +5139,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5141,14 +5176,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45842</v>
+        <v>45870</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5166,7 +5201,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5203,14 +5238,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5222,13 +5257,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5265,14 +5295,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45842</v>
+        <v>44924</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5290,7 +5320,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5327,14 +5357,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45397</v>
+        <v>44565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5346,8 +5376,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>13.6</v>
+        <v>4.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5384,14 +5419,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45859</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5404,7 +5439,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5441,14 +5476,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45861</v>
+        <v>45953</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5460,13 +5495,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5503,14 +5533,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45953</v>
+        <v>45518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5523,7 +5553,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5560,14 +5590,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45870</v>
+        <v>45387</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5579,13 +5609,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>13.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5622,14 +5647,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45870</v>
+        <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5642,7 +5667,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5679,14 +5704,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45870</v>
+        <v>44920</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5698,13 +5723,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5741,14 +5761,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45166</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5761,7 +5781,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5798,14 +5818,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44673</v>
+        <v>45113</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5818,7 +5838,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5855,14 +5875,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44565</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5874,13 +5894,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5917,14 +5932,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5936,13 +5951,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5979,14 +5989,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44272</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6000,11 +6010,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6041,14 +6051,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45428</v>
+        <v>44583</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6066,7 +6076,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6103,14 +6113,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45716</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6123,7 +6133,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6160,14 +6170,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6180,7 +6190,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6217,14 +6227,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45716</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6237,7 +6247,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6274,14 +6284,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>44673</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6294,7 +6304,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6338,7 +6348,7 @@
         <v>46002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6388,14 +6398,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>44905</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6407,8 +6417,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6445,14 +6460,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45499</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6464,13 +6479,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6507,14 +6517,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46008</v>
+        <v>45719</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6527,7 +6537,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6564,14 +6574,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>44673</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6584,7 +6594,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6621,14 +6631,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46008</v>
+        <v>45397</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6641,7 +6651,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>13.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6678,14 +6688,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45113</v>
+        <v>46008</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6698,7 +6708,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6735,14 +6745,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>46008</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6755,7 +6765,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6792,14 +6802,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45719</v>
+        <v>44915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6812,7 +6822,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6849,14 +6859,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>44951</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6874,7 +6884,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6911,14 +6921,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>44951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,8 +6940,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6975,7 +6990,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7025,14 +7040,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45476</v>
+        <v>44677</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,13 +7059,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7107,7 +7117,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7144,14 +7154,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>11.2</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44951</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7226,7 +7236,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7263,14 +7273,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44924</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7282,13 +7292,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7325,14 +7330,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44583</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7344,13 +7349,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7387,14 +7387,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45387</v>
+        <v>44935</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.7</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7444,14 +7444,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45166</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7501,14 +7501,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44905</v>
+        <v>45499</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7522,11 +7522,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7563,14 +7563,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44851</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>10.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7620,14 +7620,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44673</v>
+        <v>45155</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7677,14 +7677,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44677</v>
+        <v>45428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7696,8 +7696,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7734,14 +7739,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44952</v>
+        <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7753,13 +7758,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7796,14 +7796,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44920</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7853,14 +7853,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45540</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7910,14 +7910,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7967,14 +7967,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62573-2025</t>
+          <t>A 31015-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46007.73069444444</v>
+        <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,17 +803,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -828,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -837,6 +842,101 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka
+Ullticka
+Blodticka
+Bronshjon
+Jättesvampmal
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62573-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46007.73069444444</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Slåtterfibbla
@@ -847,91 +947,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 62642-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>46008.37217592593</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grön aspvedbock
 Björksplintborre
@@ -942,128 +1042,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31015-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka
-Ullticka
-Blodticka
-Bronshjon
-Jättesvampmal
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 34721-2025</t>
+          <t>A 54703-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45848</v>
+        <v>45618</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,17 +1534,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1568,471 +1568,471 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 34721-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Skuggblåslav
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 36366-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45868</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>7.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 31523-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44775.22490740741</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tallticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54703-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>44915</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,14 +2214,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>11.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2268,31 +2268,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,14 +2384,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44952</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,22 +2403,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2433,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2443,45 +2438,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44277</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2493,14 +2488,19 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>15.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2528,45 +2528,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,19 +2578,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>15.3</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2618,45 +2613,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,18 +2663,23 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>11.8</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,14 +3391,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 865-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 865-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,14 +3914,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45716</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44272</v>
+        <v>44920</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3990,13 +3990,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4033,14 +4028,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44851</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4053,7 +4048,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4090,14 +4085,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4109,13 +4104,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4152,14 +4142,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45476</v>
+        <v>45155</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4171,13 +4161,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4214,14 +4199,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44915</v>
+        <v>44951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4233,8 +4218,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4271,14 +4261,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45476</v>
+        <v>45518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4290,13 +4280,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4333,14 +4318,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45540</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4352,13 +4337,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4395,14 +4375,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44673</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4415,7 +4395,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4452,14 +4432,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44565</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4471,13 +4451,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4514,14 +4489,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44917</v>
+        <v>45848</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4534,7 +4509,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4571,14 +4546,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45756</v>
+        <v>45716</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4590,13 +4565,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4633,14 +4603,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4652,8 +4622,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4690,14 +4665,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45842</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4709,13 +4684,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4752,14 +4722,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45842</v>
+        <v>44915</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4771,13 +4741,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4814,14 +4779,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44952</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4833,13 +4798,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4876,14 +4836,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45842</v>
+        <v>44565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4901,7 +4861,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4938,14 +4898,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45859</v>
+        <v>44915</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4958,7 +4918,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4995,14 +4955,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45861</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5020,7 +4980,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5057,14 +5017,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45870</v>
+        <v>44673</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5077,7 +5037,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5114,14 +5074,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45870</v>
+        <v>44935</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5133,13 +5093,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5176,14 +5131,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45870</v>
+        <v>44917</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,13 +5150,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5238,14 +5188,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45848</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5258,7 +5208,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5295,14 +5245,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44924</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5320,7 +5270,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5357,14 +5307,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44565</v>
+        <v>45476</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5382,7 +5332,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5419,14 +5369,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45842</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,8 +5388,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5476,14 +5431,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45953</v>
+        <v>45842</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,8 +5450,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5533,14 +5493,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45518</v>
+        <v>45842</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,8 +5512,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5590,14 +5555,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45387</v>
+        <v>45859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5610,7 +5575,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>13.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5647,14 +5612,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44915</v>
+        <v>45861</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5666,8 +5631,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5704,14 +5674,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44920</v>
+        <v>45397</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5724,7 +5694,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>13.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5761,14 +5731,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45870</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5780,8 +5750,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5818,14 +5793,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45113</v>
+        <v>45870</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5838,7 +5813,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5875,14 +5850,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45870</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5894,8 +5869,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5932,14 +5912,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45166</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5952,7 +5932,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5989,14 +5969,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45953</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6008,13 +5988,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6051,14 +6026,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44583</v>
+        <v>44673</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6070,13 +6045,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6113,14 +6083,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45716</v>
+        <v>44565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,8 +6102,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6170,14 +6145,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,8 +6164,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6227,14 +6207,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>44272</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,8 +6226,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6284,14 +6269,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44673</v>
+        <v>45428</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,8 +6288,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6341,14 +6331,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46002</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6361,7 +6351,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6398,14 +6388,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44905</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,13 +6407,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6460,14 +6445,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6480,7 +6465,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6517,14 +6502,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45719</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6537,7 +6522,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6574,14 +6559,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44673</v>
+        <v>46002</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6594,7 +6579,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6631,14 +6616,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45397</v>
+        <v>45499</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,8 +6635,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>13.6</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6688,14 +6678,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46008</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6708,7 +6698,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6745,14 +6735,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46008</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6765,7 +6755,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6802,14 +6792,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44915</v>
+        <v>45113</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6822,7 +6812,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6859,14 +6849,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44951</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,13 +6868,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6921,14 +6906,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44951</v>
+        <v>45719</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6940,13 +6925,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6983,14 +6963,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45082</v>
+        <v>46008</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7003,7 +6983,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7040,14 +7020,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44677</v>
+        <v>46008</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7060,7 +7040,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7097,14 +7077,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7116,8 +7096,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7154,14 +7139,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7174,7 +7159,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7211,14 +7196,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45082</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,13 +7215,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7273,14 +7253,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45476</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,8 +7272,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>11.2</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7330,14 +7315,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7387,14 +7372,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44935</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7407,7 +7392,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7444,14 +7429,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45166</v>
+        <v>44951</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,8 +7448,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7501,14 +7491,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45499</v>
+        <v>44924</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7526,7 +7516,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7563,14 +7553,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>44583</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7582,8 +7572,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>10.1</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7620,14 +7615,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45155</v>
+        <v>45387</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7640,7 +7635,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7677,14 +7672,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45428</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7696,13 +7691,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7739,14 +7729,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45540</v>
+        <v>44905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,8 +7748,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7796,14 +7791,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44851</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7816,7 +7811,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7853,14 +7848,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>44673</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7873,7 +7868,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7910,14 +7905,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>44677</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7930,7 +7925,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7967,14 +7962,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44952</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7986,8 +7981,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,14 +1168,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34717-2025</t>
+          <t>A 12620-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45848</v>
+        <v>44638</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1215,127 +1215,127 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 34717-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 12620-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Taggfingersvamp
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 54703-2024</t>
+          <t>A 31523-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45618</v>
+        <v>44775.22490740741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1568,557 +1568,557 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 36366-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 34721-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45848</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skuggblåslav
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 36366-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Fällmossa
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,14 +2214,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44277</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2268,45 +2268,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45834</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>11.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2353,45 +2353,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>44952</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,18 +2403,23 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2438,45 +2443,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45834</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2488,13 +2493,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>15.3</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2528,45 +2528,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44277</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2613,45 +2613,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44952</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2669,16 +2669,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>15.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,14 +3158,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 13921-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44523</v>
+        <v>44277</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3177,13 +3177,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3220,14 +3215,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 10082-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44658</v>
+        <v>44621</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3240,7 +3235,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3277,14 +3272,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44523</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3296,8 +3291,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3334,14 +3334,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44569</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3353,8 +3353,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,7 +3403,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3453,14 +3458,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44569</v>
+        <v>44747</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3472,13 +3477,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13921-2021</t>
+          <t>A 28964-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44277</v>
+        <v>44749</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3572,14 +3572,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747</v>
+        <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,14 +3686,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10082-2022</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44621</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3743,14 +3743,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28964-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44749</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,14 +3857,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44747</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3876,8 +3876,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3914,14 +3919,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>44747</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3939,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3971,14 +3976,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44920</v>
+        <v>45476</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3990,8 +3995,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4028,14 +4038,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4058,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4085,14 +4095,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>45716</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4115,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4142,14 +4152,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45155</v>
+        <v>44915</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4172,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4199,14 +4209,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44951</v>
+        <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4218,13 +4228,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4261,14 +4266,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45518</v>
+        <v>45387</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4281,7 +4286,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>13.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4318,14 +4323,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45540</v>
+        <v>44915</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4343,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4375,14 +4380,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4394,8 +4399,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4432,14 +4442,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4451,8 +4461,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4489,14 +4504,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45848</v>
+        <v>44851</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4524,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4546,14 +4561,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45716</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4565,8 +4580,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4603,14 +4623,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45756</v>
+        <v>44673</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4622,13 +4642,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4665,14 +4680,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>44920</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4685,7 +4700,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4722,14 +4737,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44915</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4742,7 +4757,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4779,14 +4794,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4799,7 +4814,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4836,14 +4851,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44565</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4855,13 +4870,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4898,14 +4908,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44915</v>
+        <v>45756</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4917,8 +4927,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4955,14 +4970,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4974,13 +4989,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5017,14 +5027,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44673</v>
+        <v>44565</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5036,8 +5046,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5074,14 +5089,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44935</v>
+        <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5094,7 +5109,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5131,14 +5146,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44917</v>
+        <v>44952</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5150,8 +5165,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5188,14 +5208,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5208,7 +5228,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5245,14 +5265,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5264,13 +5284,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,14 +5322,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45476</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5332,7 +5347,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5369,14 +5384,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45842</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5388,13 +5403,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5431,14 +5441,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45842</v>
+        <v>45082</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5450,13 +5460,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5493,14 +5498,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45842</v>
+        <v>44583</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5518,7 +5523,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5555,14 +5560,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45859</v>
+        <v>45716</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5575,7 +5580,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5612,14 +5617,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45861</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5631,13 +5636,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5674,14 +5674,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45397</v>
+        <v>45842</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,8 +5693,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>13.6</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5731,14 +5736,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45870</v>
+        <v>44677</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5750,13 +5755,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45870</v>
+        <v>45842</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5812,8 +5812,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5850,14 +5855,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45870</v>
+        <v>45842</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5875,7 +5880,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5912,14 +5917,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45166</v>
+        <v>44673</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5932,7 +5937,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5969,14 +5974,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45953</v>
+        <v>45859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5989,7 +5994,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6026,14 +6031,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44673</v>
+        <v>45861</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,8 +6050,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6083,14 +6093,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44565</v>
+        <v>44924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6108,7 +6118,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6145,14 +6155,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45870</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6164,13 +6174,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6207,14 +6212,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44272</v>
+        <v>44905</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6228,11 +6233,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6269,14 +6274,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45428</v>
+        <v>45870</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6294,7 +6299,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6331,14 +6336,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45870</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6350,8 +6355,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6388,14 +6398,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45719</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6408,7 +6418,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6445,14 +6455,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45716</v>
+        <v>44673</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6465,7 +6475,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6502,14 +6512,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45397</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6522,7 +6532,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6559,14 +6569,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6579,7 +6589,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6616,14 +6626,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45499</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6635,13 +6645,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6678,14 +6683,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>44565</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6697,8 +6702,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6735,14 +6745,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6754,8 +6764,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>10.1</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6792,14 +6807,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45113</v>
+        <v>44915</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6812,7 +6827,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6849,14 +6864,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>44951</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6868,8 +6883,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6906,14 +6926,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45719</v>
+        <v>44951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6925,8 +6945,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6963,14 +6988,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46008</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6983,7 +7008,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7020,14 +7045,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46008</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7040,7 +7065,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7077,14 +7102,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>44935</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7096,13 +7121,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7139,14 +7159,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45166</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7159,7 +7179,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7196,14 +7216,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45082</v>
+        <v>45499</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7215,8 +7235,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7253,14 +7278,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45476</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7272,13 +7297,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>10.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7315,14 +7335,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45155</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7335,7 +7355,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7372,14 +7392,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45428</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7391,8 +7411,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>11.2</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7429,14 +7454,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44951</v>
+        <v>45848</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7448,13 +7473,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7491,14 +7511,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44924</v>
+        <v>45540</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7510,13 +7530,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7553,14 +7568,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44583</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7572,13 +7587,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7615,14 +7625,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45387</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7635,7 +7645,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>13.7</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7672,14 +7682,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45953</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7692,7 +7702,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7729,14 +7739,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44905</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,13 +7758,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7791,14 +7796,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44851</v>
+        <v>46002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7811,7 +7816,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7848,14 +7853,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44673</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7868,7 +7873,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7905,14 +7910,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44677</v>
+        <v>46008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7925,7 +7930,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7962,14 +7967,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44952</v>
+        <v>46008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7981,13 +7986,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,14 +1168,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 12620-2022</t>
+          <t>A 34717-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44638</v>
+        <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1215,127 +1215,127 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 12620-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 34717-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>44678</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44498</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,14 +1514,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 31523-2022</t>
+          <t>A 36366-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44775.22490740741</v>
+        <v>45868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1569,45 +1569,45 @@
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Garnlav
-Tallticka</t>
+Björksplintborre</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 36366-2025</t>
+          <t>A 34721-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45868</v>
+        <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1654,32 +1654,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Garnlav
-Björksplintborre</t>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>45568</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,14 +1777,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54703-2024</t>
+          <t>A 62578-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45618</v>
+        <v>46007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1831,294 +1831,294 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 31523-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44775.22490740741</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>44712</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,14 +2214,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44277</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2268,45 +2268,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>11.8</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2353,45 +2353,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44952</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,22 +2403,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2433,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2443,45 +2438,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45834</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2493,8 +2488,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>15.3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2528,45 +2528,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2613,45 +2613,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>44952</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2669,17 +2669,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>15.3</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3158,14 +3158,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13921-2021</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44277</v>
+        <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3177,8 +3177,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3215,14 +3220,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10082-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44621</v>
+        <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3240,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3272,14 +3277,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44523</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3291,13 +3296,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3334,14 +3334,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44569</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3353,13 +3353,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3403,7 +3398,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,14 +3453,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44747</v>
+        <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3477,8 +3472,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28964-2022</t>
+          <t>A 13921-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44749</v>
+        <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3572,14 +3572,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44658</v>
+        <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3686,14 +3686,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 10082-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3743,14 +3743,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 28964-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,14 +3857,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3876,13 +3876,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3919,14 +3914,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44747</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3939,7 +3934,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3976,14 +3971,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45476</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3995,13 +3990,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4038,14 +4028,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4058,7 +4048,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4095,14 +4085,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45716</v>
+        <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4115,7 +4105,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4152,14 +4142,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44915</v>
+        <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4171,8 +4161,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4216,7 +4211,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,14 +4261,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45387</v>
+        <v>46008</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4286,7 +4281,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>13.7</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4323,14 +4318,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44915</v>
+        <v>46008</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4343,7 +4338,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4380,14 +4375,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45476</v>
+        <v>45716</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4399,13 +4394,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4442,14 +4432,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44272</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4461,13 +4451,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4504,14 +4489,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44851</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4524,7 +4509,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4561,14 +4546,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>44565</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4586,7 +4571,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4623,14 +4608,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44673</v>
+        <v>45756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4642,8 +4627,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4680,14 +4670,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44920</v>
+        <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4700,7 +4690,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4737,14 +4727,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4757,7 +4747,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4794,14 +4784,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44917</v>
+        <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4814,7 +4804,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4851,14 +4841,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4870,8 +4860,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4908,14 +4903,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45756</v>
+        <v>44673</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4927,13 +4922,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4989,8 +4979,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5027,14 +5022,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44565</v>
+        <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5052,7 +5047,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5089,14 +5084,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45113</v>
+        <v>45842</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5108,8 +5103,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5146,14 +5146,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5165,13 +5165,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5208,14 +5203,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>44917</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5228,7 +5223,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5284,8 +5279,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5341,13 +5341,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5384,14 +5379,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5403,8 +5398,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5441,14 +5441,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45082</v>
+        <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5460,8 +5460,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5498,14 +5503,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44583</v>
+        <v>45476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5523,7 +5528,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5560,14 +5565,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45716</v>
+        <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5580,7 +5585,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5636,8 +5641,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5674,14 +5684,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5693,13 +5703,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5736,14 +5741,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44677</v>
+        <v>45397</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5756,7 +5761,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.9</v>
+        <v>13.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5793,14 +5798,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45842</v>
+        <v>45166</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5812,13 +5817,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5855,14 +5855,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45842</v>
+        <v>44673</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5874,13 +5874,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5917,14 +5912,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44673</v>
+        <v>44565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5936,8 +5931,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5974,14 +5974,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45859</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5993,8 +5993,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6031,14 +6036,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45861</v>
+        <v>44272</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6052,11 +6057,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6093,14 +6098,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44924</v>
+        <v>45953</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,13 +6117,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6155,14 +6155,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45870</v>
+        <v>45428</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6174,8 +6174,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6212,14 +6217,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44905</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6231,13 +6236,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6274,14 +6274,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45870</v>
+        <v>45716</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6293,13 +6293,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6336,14 +6331,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45870</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6355,13 +6350,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6398,14 +6388,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45719</v>
+        <v>45499</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,8 +6407,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6455,14 +6450,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44673</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6475,7 +6470,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6512,14 +6507,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45397</v>
+        <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6532,7 +6527,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>13.6</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6569,14 +6564,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6589,7 +6584,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6626,14 +6621,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6646,7 +6641,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6683,14 +6678,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44565</v>
+        <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,13 +6697,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6745,14 +6735,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>46002</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,13 +6754,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6807,14 +6792,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44915</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6827,7 +6812,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6864,14 +6849,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44951</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6889,7 +6874,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6926,14 +6911,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44951</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6945,13 +6930,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6988,14 +6968,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7008,7 +6988,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.2</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7045,14 +7025,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7064,8 +7044,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7102,14 +7087,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44935</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7122,7 +7107,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7159,14 +7144,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45166</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7179,7 +7164,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>11.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7216,14 +7201,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45499</v>
+        <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7237,11 +7222,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7278,14 +7263,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7297,8 +7282,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>10.1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7335,14 +7325,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45155</v>
+        <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,8 +7344,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7392,14 +7387,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45428</v>
+        <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,13 +7406,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>13.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7454,14 +7444,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45848</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7474,7 +7464,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7511,14 +7501,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45540</v>
+        <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,8 +7520,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7568,14 +7563,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7588,7 +7583,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7625,14 +7620,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7645,7 +7640,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7682,14 +7677,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45953</v>
+        <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7702,7 +7697,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7739,14 +7734,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,8 +7753,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7796,14 +7796,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002</v>
+        <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7853,14 +7853,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7910,14 +7910,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7967,14 +7967,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31015-2024</t>
+          <t>A 62573-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45499</v>
+        <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,23 +803,18 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -833,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -842,6 +837,197 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Slåtterfibbla
+Svartvit flugsnappare
+Ärtsångare
+Vårärt
+Större brunfladdermus
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62642-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46008.37217592593</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grön aspvedbock
+Björksplintborre
+Bronshjon
+Dvärgtufs
+Granbarkgnagare
+Mindre märgborre
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31015-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka
@@ -852,218 +1038,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62573-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46007.73069444444</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Slåtterfibbla
-Svartvit flugsnappare
-Ärtsångare
-Vårärt
-Större brunfladdermus
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62642-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46008.37217592593</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grön aspvedbock
-Björksplintborre
-Bronshjon
-Dvärgtufs
-Granbarkgnagare
-Mindre märgborre
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1168,1060 +1168,1065 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A 3919-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Tallticka
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>A 34717-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45848</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 12620-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44638</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>9.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 17244-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44678</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Bronshjon
 Grön sköldmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 17244-2022 artfynd.xlsx", "A 17244-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 17244-2022 karta.png", "A 17244-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 17244-2022 FSC-klagomål.docx", "A 17244-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 17244-2022 FSC-klagomål mail.docx", "A 17244-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 17244-2022 tillsynsbegäran.docx", "A 17244-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 17244-2022 tillsynsbegäran mail.docx", "A 17244-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 61275-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44498</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61275-2021 artfynd.xlsx", "A 61275-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61275-2021 karta.png", "A 61275-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61275-2021 FSC-klagomål.docx", "A 61275-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61275-2021 FSC-klagomål mail.docx", "A 61275-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61275-2021 tillsynsbegäran.docx", "A 61275-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61275-2021 tillsynsbegäran mail.docx", "A 61275-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 34721-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 36366-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45868</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>7.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 31523-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44775.22490740741</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tallticka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 61363-2022</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44915</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>5.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Skuggblåslav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 54703-2024</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45618</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.7</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 22172-2022</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Kråka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 22172-2022 artfynd.xlsx", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 22172-2022 karta.png", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 22172-2022 FSC-klagomål.docx", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 22172-2022 FSC-klagomål mail.docx", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 22172-2022 tillsynsbegäran.docx", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 22172-2022 tillsynsbegäran mail.docx", "A 22172-2022")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 22172-2022 prioriterade fågelarter.docx", "A 22172-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 22172-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2234,7 +2239,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>11.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2243,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2258,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2268,45 +2273,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 22172-2022 artfynd.xlsx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 22172-2022 karta.png", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 22172-2022 FSC-klagomål.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 22172-2022 FSC-klagomål mail.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 22172-2022 tillsynsbegäran.docx", "A 22172-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 22172-2022 tillsynsbegäran mail.docx", "A 22172-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 22172-2022 prioriterade fågelarter.docx", "A 22172-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45834</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,7 +2328,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>11.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2353,45 +2362,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45834</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,13 +2413,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2438,45 +2447,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2488,19 +2497,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>15.3</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2528,45 +2532,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44277</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,14 +2582,19 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>15.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2613,45 +2622,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44952</v>
+        <v>44277</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2663,22 +2672,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2693,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2703,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2989,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3046,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3108,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3165,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3227,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3284,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3341,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3398,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3460,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3921,7 +3925,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3978,7 +3982,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4035,7 +4039,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4092,7 +4096,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4149,7 +4153,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4211,7 +4215,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4261,14 +4265,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46008</v>
+        <v>46002</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4281,7 +4285,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4318,14 +4322,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46008</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4342,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4382,7 +4386,7 @@
         <v>45716</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4432,14 +4436,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4456,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4489,14 +4493,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4508,8 +4512,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4546,14 +4555,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44565</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4565,13 +4574,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>7.6</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4608,14 +4612,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45756</v>
+        <v>45848</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4627,13 +4631,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4670,14 +4669,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44915</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4690,7 +4689,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4727,14 +4726,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4746,8 +4745,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4784,14 +4788,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4804,7 +4808,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4841,14 +4845,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44915</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4860,13 +4864,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4903,14 +4902,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44673</v>
+        <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4922,8 +4921,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4960,14 +4964,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45842</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4985,7 +4989,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5029,7 +5033,7 @@
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5091,7 +5095,7 @@
         <v>45842</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5146,14 +5150,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44935</v>
+        <v>44673</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5166,7 +5170,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5203,14 +5207,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44917</v>
+        <v>44935</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5223,7 +5227,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5260,14 +5264,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>44917</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5279,13 +5283,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5329,7 +5328,7 @@
         <v>45859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5385,7 @@
         <v>45861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5441,14 +5440,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45870</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5466,7 +5465,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5503,14 +5502,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45476</v>
+        <v>45870</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5528,7 +5527,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5572,7 +5571,7 @@
         <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5629,7 +5628,7 @@
         <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,14 +5683,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45848</v>
+        <v>45476</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5703,8 +5702,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5741,14 +5745,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45397</v>
+        <v>45953</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5761,7 +5765,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>13.6</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5798,14 +5802,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45166</v>
+        <v>46008</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5818,7 +5822,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5855,14 +5859,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44673</v>
+        <v>46008</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5875,7 +5879,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5912,14 +5916,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44565</v>
+        <v>45397</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5931,13 +5935,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>13.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5974,14 +5973,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45166</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5993,13 +5992,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6036,14 +6030,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44272</v>
+        <v>44673</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,13 +6049,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6098,14 +6087,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45953</v>
+        <v>44565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6117,8 +6106,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6155,14 +6149,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45428</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6174,13 +6168,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6217,14 +6206,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6236,8 +6225,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6274,14 +6268,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45716</v>
+        <v>44272</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6293,8 +6287,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6331,14 +6330,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45428</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6350,8 +6349,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6388,14 +6392,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45499</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6407,13 +6411,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6450,14 +6449,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6470,7 +6469,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>10.1</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6507,14 +6506,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45113</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6527,7 +6526,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6564,14 +6563,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45499</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6583,8 +6582,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6621,14 +6625,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6641,7 +6645,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6678,14 +6682,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45719</v>
+        <v>45113</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6698,7 +6702,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6735,14 +6739,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6755,7 +6759,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6792,14 +6796,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45719</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6812,7 +6816,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6856,7 +6860,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6918,7 +6922,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6975,7 +6979,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7032,7 +7036,7 @@
         <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7094,7 +7098,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7151,7 +7155,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7208,7 +7212,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7270,7 +7274,7 @@
         <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7332,7 +7336,7 @@
         <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7394,7 +7398,7 @@
         <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7451,7 +7455,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7508,7 +7512,7 @@
         <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7570,7 +7574,7 @@
         <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7627,7 +7631,7 @@
         <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7684,7 +7688,7 @@
         <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7741,7 +7745,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7803,7 +7807,7 @@
         <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7860,7 +7864,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7917,7 +7921,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7974,7 +7978,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62573-2025</t>
+          <t>A 31015-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46007.73069444444</v>
+        <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,17 +803,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -828,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -837,6 +842,101 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka
+Ullticka
+Blodticka
+Bronshjon
+Jättesvampmal
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62573-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46007.73069444444</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Slåtterfibbla
@@ -847,91 +947,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 62642-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>46008.37217592593</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grön aspvedbock
 Björksplintborre
@@ -942,128 +1042,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31015-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka
-Ullticka
-Blodticka
-Bronshjon
-Jättesvampmal
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 62578-2025</t>
+          <t>A 34721-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46007</v>
+        <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1662,204 +1662,204 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 36366-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 36366-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>45568</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44915</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45618</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45834</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44277</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4265,14 +4265,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46002</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4322,14 +4322,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>45716</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4436,14 +4436,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4455,8 +4455,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4493,14 +4498,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44565</v>
+        <v>45848</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4512,13 +4517,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45848</v>
+        <v>45756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,8 +4631,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4669,14 +4674,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4689,7 +4694,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4726,14 +4731,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45756</v>
+        <v>44915</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,13 +4750,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4788,14 +4788,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44915</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4807,8 +4807,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4845,14 +4850,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44915</v>
+        <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4864,8 +4869,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4902,14 +4912,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45842</v>
+        <v>44673</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,13 +4931,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4964,14 +4969,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4989,7 +4994,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5026,14 +5031,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5051,7 +5056,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5088,14 +5093,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45842</v>
+        <v>44935</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5107,13 +5112,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5150,14 +5150,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44673</v>
+        <v>44917</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44935</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5226,8 +5226,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5264,14 +5269,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44917</v>
+        <v>45859</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5284,7 +5289,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5321,14 +5326,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5340,8 +5345,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5378,14 +5388,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45861</v>
+        <v>45953</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5397,13 +5407,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5465,7 +5470,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5502,14 +5507,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>45870</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5521,13 +5526,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5564,14 +5564,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45870</v>
+        <v>45476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5583,8 +5583,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5628,7 +5633,7 @@
         <v>45870</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5683,14 +5688,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45476</v>
+        <v>45397</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5702,13 +5707,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>13.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,14 +5745,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45953</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5802,14 +5802,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46008</v>
+        <v>45166</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46008</v>
+        <v>44673</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5916,14 +5916,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45397</v>
+        <v>44565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5935,8 +5935,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>13.6</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5973,14 +5978,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45166</v>
+        <v>46002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5993,7 +5998,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6030,14 +6035,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44673</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6050,7 +6055,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6087,14 +6092,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44565</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6117,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6149,14 +6154,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>44272</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6168,8 +6173,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6206,14 +6216,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>46008</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6225,13 +6235,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6268,14 +6273,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44272</v>
+        <v>46008</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6287,13 +6292,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>45428</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45499</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45113</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45719</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45082</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>45476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44924</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44583</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45387</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44851</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44677</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44920</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31015-2024</t>
+          <t>A 62573-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45499</v>
+        <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,23 +803,18 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -833,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -842,6 +837,197 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Slåtterfibbla
+Svartvit flugsnappare
+Ärtsångare
+Vårärt
+Större brunfladdermus
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62642-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46008.37217592593</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grön aspvedbock
+Björksplintborre
+Bronshjon
+Dvärgtufs
+Granbarkgnagare
+Mindre märgborre
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31015-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka
@@ -852,218 +1038,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62573-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46007.73069444444</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Slåtterfibbla
-Svartvit flugsnappare
-Ärtsångare
-Vårärt
-Större brunfladdermus
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62642-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46008.37217592593</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grön aspvedbock
-Björksplintborre
-Bronshjon
-Dvärgtufs
-Granbarkgnagare
-Mindre märgborre
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45868</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,14 +1780,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 62578-2025</t>
+          <t>A 31523-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46007</v>
+        <v>44775.22490740741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,17 +1800,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1834,223 +1834,223 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 43308-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45568</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>3.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61363-2022</t>
+          <t>A 54703-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44915</v>
+        <v>45618</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2097,122 +2097,122 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp
 Skuggblåslav</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 54703-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>11.8</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2362,45 +2362,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45834</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>11.8</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2447,45 +2447,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45834</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2532,45 +2532,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2582,19 +2582,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>15.3</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2622,45 +2617,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44277</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2672,14 +2667,19 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>15.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>45716</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>45540</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45155</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44951</v>
+        <v>44272</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45518</v>
+        <v>44851</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4284,8 +4284,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4322,14 +4327,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>45476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4341,8 +4346,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4379,14 +4389,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45716</v>
+        <v>45953</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4399,7 +4409,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4436,14 +4446,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44565</v>
+        <v>44915</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4455,13 +4465,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4505,7 +4510,7 @@
         <v>45848</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4555,14 +4560,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,8 +4579,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4612,14 +4622,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45756</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,13 +4641,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4674,14 +4679,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44915</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4693,8 +4698,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4731,14 +4741,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44915</v>
+        <v>44673</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4751,7 +4761,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4788,14 +4798,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4807,13 +4817,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4850,14 +4855,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45842</v>
+        <v>44565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4875,7 +4880,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4912,14 +4917,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44673</v>
+        <v>44917</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4932,7 +4937,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4969,14 +4974,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45842</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4988,13 +4993,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5031,14 +5031,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45842</v>
+        <v>45756</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5093,14 +5093,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44935</v>
+        <v>45842</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5112,8 +5112,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5150,14 +5155,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44917</v>
+        <v>45842</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5169,8 +5174,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5207,14 +5217,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45842</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5232,7 +5242,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5269,14 +5279,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45859</v>
+        <v>44952</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5288,8 +5298,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5326,14 +5341,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5345,13 +5360,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5388,14 +5398,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45953</v>
+        <v>45861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5407,8 +5417,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5445,14 +5460,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5464,13 +5479,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5507,14 +5517,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>45870</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5526,8 +5536,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5564,14 +5579,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45476</v>
+        <v>45870</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5589,7 +5604,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5626,14 +5641,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45870</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5645,13 +5660,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5688,14 +5698,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45397</v>
+        <v>44924</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5707,8 +5717,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>13.6</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,14 +5760,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>46002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5780,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5802,14 +5817,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45166</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5837,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5859,14 +5874,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44673</v>
+        <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5878,8 +5893,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5916,14 +5936,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44565</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5935,13 +5955,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5978,14 +5993,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +6013,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6035,14 +6050,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>46008</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6070,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6092,14 +6107,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6111,13 +6126,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6154,14 +6164,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44272</v>
+        <v>45387</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6173,13 +6183,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>13.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6216,14 +6221,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46008</v>
+        <v>44915</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6236,7 +6241,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6273,14 +6278,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46008</v>
+        <v>44920</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6293,7 +6298,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6330,14 +6335,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45428</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6349,13 +6354,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45113</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45716</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45499</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>44583</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6644,8 +6644,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>10.1</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6682,14 +6687,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45113</v>
+        <v>45716</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6707,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6739,14 +6744,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6764,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6796,14 +6801,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45719</v>
+        <v>44673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6821,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6853,14 +6858,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>44905</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6883,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6915,14 +6920,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45719</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6940,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6972,14 +6977,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45082</v>
+        <v>44673</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6997,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7029,14 +7034,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45476</v>
+        <v>45397</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7048,13 +7053,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>13.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7091,14 +7091,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>44915</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7148,14 +7148,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>44951</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7167,8 +7167,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>11.2</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7205,14 +7210,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>44951</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7235,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7267,14 +7272,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44924</v>
+        <v>45082</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7286,13 +7291,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7329,14 +7329,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44583</v>
+        <v>44677</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7348,13 +7348,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7391,14 +7386,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45387</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7406,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.7</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7448,14 +7443,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7468,7 +7463,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7505,14 +7500,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44905</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7525,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7567,14 +7562,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44851</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7582,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7624,14 +7619,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44673</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7639,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7681,14 +7676,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44677</v>
+        <v>44935</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7696,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7738,14 +7733,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44952</v>
+        <v>45166</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7757,13 +7752,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7800,14 +7790,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44920</v>
+        <v>45499</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7819,8 +7809,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7857,14 +7852,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45540</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7872,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>10.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7914,14 +7909,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45155</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7929,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7971,14 +7966,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>45428</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,8 +7985,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62573-2025</t>
+          <t>A 31015-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46007.73069444444</v>
+        <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,17 +803,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -828,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -837,6 +842,101 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka
+Ullticka
+Blodticka
+Bronshjon
+Jättesvampmal
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62573-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46007.73069444444</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Slåtterfibbla
@@ -847,91 +947,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 62642-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>46008.37217592593</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grön aspvedbock
 Björksplintborre
@@ -942,128 +1042,28 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31015-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45499</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka
-Ullticka
-Blodticka
-Bronshjon
-Jättesvampmal
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45868</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,14 +1780,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31523-2022</t>
+          <t>A 43308-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44775.22490740741</v>
+        <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,17 +1799,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1824,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1834,223 +1839,218 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Tallticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 31523-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44775.22490740741</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Garnlav
 Tallticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 54703-2024</t>
+          <t>A 61363-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45618</v>
+        <v>44915</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2097,122 +2097,122 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2362,45 +2362,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,13 +2413,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.8</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2447,45 +2447,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45834</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2497,8 +2497,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>15.3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2532,31 +2537,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
@@ -2570,7 +2575,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,14 +2653,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2667,13 +2672,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>15.3</v>
+        <v>11.8</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45716</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45540</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44272</v>
+        <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44851</v>
+        <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4284,13 +4284,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4327,14 +4322,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45476</v>
+        <v>44565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4352,7 +4347,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4389,14 +4384,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45953</v>
+        <v>45756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4408,8 +4403,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4446,14 +4446,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>44915</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4503,14 +4503,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45848</v>
+        <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4560,14 +4560,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45476</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4622,14 +4622,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4679,14 +4679,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4698,13 +4698,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4741,14 +4736,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44673</v>
+        <v>44935</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4761,7 +4756,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4798,14 +4793,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4818,7 +4813,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4855,14 +4850,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44565</v>
+        <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4880,7 +4875,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4917,14 +4912,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44917</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4936,8 +4931,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4974,14 +4974,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4993,8 +4993,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5031,14 +5036,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45756</v>
+        <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5056,7 +5061,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5093,14 +5098,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5112,13 +5117,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45842</v>
+        <v>45476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45842</v>
+        <v>45859</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5236,13 +5236,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5279,14 +5274,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44952</v>
+        <v>45861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5300,11 +5295,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5341,14 +5336,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45859</v>
+        <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5360,8 +5355,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5398,14 +5398,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45861</v>
+        <v>45870</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5417,13 +5417,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5460,14 +5455,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5479,8 +5474,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5517,14 +5517,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45870</v>
+        <v>45397</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5536,13 +5536,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>13.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5579,14 +5574,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45870</v>
+        <v>45166</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5598,13 +5593,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5641,14 +5631,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45953</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5661,7 +5651,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5698,14 +5688,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44924</v>
+        <v>44673</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5717,13 +5707,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5760,14 +5745,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46002</v>
+        <v>44565</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5779,8 +5764,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5817,14 +5807,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5836,8 +5826,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5874,14 +5869,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44565</v>
+        <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5895,11 +5890,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5936,14 +5931,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45428</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5955,8 +5950,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46008</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46008</v>
+        <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45518</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45387</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>13.7</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44915</v>
+        <v>46002</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44920</v>
+        <v>45499</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6297,8 +6297,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6335,14 +6340,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6355,7 +6360,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6392,14 +6397,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45113</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6412,7 +6417,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>10.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6449,14 +6454,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6474,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6506,14 +6511,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6526,7 +6531,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6563,14 +6568,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>46008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6582,13 +6587,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6625,14 +6625,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44583</v>
+        <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6644,13 +6644,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6687,14 +6682,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6702,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6744,14 +6739,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6763,8 +6758,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6801,14 +6801,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44673</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6858,14 +6858,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44905</v>
+        <v>45082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6877,13 +6877,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6920,14 +6915,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45719</v>
+        <v>45476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6939,8 +6934,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6977,14 +6977,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44673</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7034,14 +7034,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45397</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>13.6</v>
+        <v>11.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7091,14 +7091,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44915</v>
+        <v>44951</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7110,8 +7110,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7148,14 +7153,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44951</v>
+        <v>44924</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7169,11 +7174,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7210,14 +7215,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44951</v>
+        <v>44583</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7231,11 +7236,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7272,14 +7277,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45082</v>
+        <v>45387</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7297,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.1</v>
+        <v>13.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7329,14 +7334,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44677</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7354,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7386,14 +7391,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7405,8 +7410,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7443,14 +7453,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44851</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7473,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7500,14 +7510,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7519,13 +7529,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7562,14 +7567,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>44677</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7582,7 +7587,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.2</v>
+        <v>5.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7619,14 +7624,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>44952</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7638,8 +7643,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7676,14 +7686,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44935</v>
+        <v>44920</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7696,7 +7706,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7733,14 +7743,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45166</v>
+        <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7753,7 +7763,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7790,14 +7800,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45499</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7809,13 +7819,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7852,14 +7857,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7877,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>10.1</v>
+        <v>3.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7909,14 +7914,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45155</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7929,7 +7934,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7966,14 +7971,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45428</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7985,13 +7990,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45868</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>46007</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44915</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45618</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>45756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44915</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44935</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45848</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45859</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45870</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45397</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>45166</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>45953</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44673</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44565</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45428</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>46002</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45499</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>46008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44951</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44924</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44583</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45387</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44851</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44677</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44952</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44920</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45868</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>46007</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44915</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45618</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45834</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>45155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44951</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>45756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44915</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>44935</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44917</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45842</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45848</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45476</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45859</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45870</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45870</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45397</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>45166</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>45953</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44673</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44565</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45428</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>46002</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45499</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45113</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>46008</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>45082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45476</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44951</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44924</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44583</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45387</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44851</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44677</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44952</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44920</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 153-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45659.61650462963</v>
+        <v>44952</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1119,15 +1119,109 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Tallticka
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 153-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45659.61650462963</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Stare
@@ -1136,140 +1230,46 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 3919-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Tallticka
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 34717-2025</t>
+          <t>A 12620-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45848</v>
+        <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,19 +1282,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1309,127 +1309,127 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 34717-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 12620-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Taggfingersvamp
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34721-2025</t>
+          <t>A 43308-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45848</v>
+        <v>45568</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,17 +1627,22 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1652,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1662,557 +1667,552 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tallticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 31523-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44775.22490740741</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 34721-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Skuggblåslav
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 36366-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45868</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 54703-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45834</v>
+        <v>44277</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,14 +2568,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44277</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2622,45 +2622,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>45834</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.8</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2862,14 +2862,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 1910-2022</t>
+          <t>A 17263-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44575</v>
+        <v>44678</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,13 +2881,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2931,7 +2926,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2986,14 +2981,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17263-2022</t>
+          <t>A 18172-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44678</v>
+        <v>44302.62196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3006,7 +3001,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3050,7 +3045,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3105,14 +3100,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18172-2021</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44302.62196759259</v>
+        <v>44523</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,8 +3119,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44523</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,13 +3181,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3224,14 +3219,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44658</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3244,7 +3239,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3281,14 +3276,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44658</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3301,7 +3296,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3338,14 +3333,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44569</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3357,8 +3352,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3457,14 +3457,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 1910-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44569</v>
+        <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,14 +3576,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 17173-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747</v>
+        <v>44677</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17173-2022</t>
+          <t>A 10082-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44677</v>
+        <v>44621</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3690,14 +3690,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10082-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44621</v>
+        <v>44747</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,14 +3861,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44747</v>
+        <v>45716</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>44747</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3994,8 +3994,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4032,14 +4037,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44673</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4052,7 +4057,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4089,14 +4094,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45155</v>
+        <v>44272</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4108,8 +4113,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4146,14 +4156,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44951</v>
+        <v>44851</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4165,13 +4175,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4208,14 +4213,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45518</v>
+        <v>44917</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,7 +4233,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4265,14 +4270,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45716</v>
+        <v>44924</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4284,8 +4289,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4322,14 +4332,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44565</v>
+        <v>45756</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4347,7 +4357,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4384,14 +4394,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45756</v>
+        <v>44565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4409,7 +4419,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4446,14 +4456,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44915</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4466,7 +4476,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4503,14 +4513,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44915</v>
+        <v>44952</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4522,8 +4532,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4560,14 +4575,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4579,13 +4594,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4622,14 +4632,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>45518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4642,7 +4652,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4679,14 +4689,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44673</v>
+        <v>45387</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4699,7 +4709,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>13.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4736,14 +4746,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44935</v>
+        <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4756,7 +4766,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4793,14 +4803,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44917</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4812,8 +4822,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4850,14 +4865,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45842</v>
+        <v>44915</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4869,13 +4884,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4912,14 +4922,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>44905</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4933,11 +4943,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4974,14 +4984,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45842</v>
+        <v>45719</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4991,11 +5001,6 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -5036,14 +5041,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45842</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5055,13 +5060,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5098,14 +5098,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45848</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45476</v>
+        <v>44920</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5174,13 +5174,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5217,14 +5212,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45859</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5236,8 +5231,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5274,14 +5274,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45861</v>
+        <v>45476</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5336,14 +5336,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45870</v>
+        <v>44583</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5398,14 +5398,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45870</v>
+        <v>44673</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5455,14 +5455,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45870</v>
+        <v>45716</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5474,13 +5474,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5517,14 +5512,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45397</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5532,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>13.6</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5574,14 +5569,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45166</v>
+        <v>45397</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5589,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5631,14 +5626,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45953</v>
+        <v>44915</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5646,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5688,14 +5683,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>44673</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5703,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,14 +5740,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44565</v>
+        <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5764,13 +5759,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5807,14 +5797,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45476</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5832,7 +5822,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5869,14 +5859,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44272</v>
+        <v>44951</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5890,11 +5880,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5931,14 +5921,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45428</v>
+        <v>44951</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5952,11 +5942,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5993,14 +5983,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45848</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6013,7 +6003,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6050,14 +6040,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45716</v>
+        <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6070,7 +6060,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6107,14 +6097,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>44677</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6127,7 +6117,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6164,14 +6154,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6184,7 +6174,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6221,14 +6211,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46002</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6241,7 +6231,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6278,14 +6268,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45499</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6299,11 +6289,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6340,14 +6330,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45953</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6350,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6397,14 +6387,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6407,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6454,14 +6444,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45113</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6464,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6511,14 +6501,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>44935</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6521,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6568,14 +6558,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46008</v>
+        <v>45166</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6578,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6625,14 +6615,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46008</v>
+        <v>45499</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6644,8 +6634,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6682,14 +6677,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45719</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6697,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>10.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6739,14 +6734,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45155</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6758,13 +6753,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6801,14 +6791,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45428</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6820,8 +6810,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6858,14 +6853,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45082</v>
+        <v>45540</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6873,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6915,14 +6910,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45476</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6934,13 +6929,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6977,14 +6967,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6997,7 +6987,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7034,14 +7024,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7054,7 +7044,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>11.2</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7091,14 +7081,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44951</v>
+        <v>46002</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7110,13 +7100,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7153,14 +7138,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44924</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7172,13 +7157,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7215,14 +7195,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44583</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7234,13 +7214,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7277,14 +7252,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45387</v>
+        <v>46008</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7297,7 +7272,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7334,14 +7309,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7329,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7391,14 +7366,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44905</v>
+        <v>44565</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7412,11 +7387,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7453,14 +7428,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44851</v>
+        <v>46008</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7448,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7510,14 +7485,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44673</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7505,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7567,14 +7542,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44677</v>
+        <v>45842</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7586,8 +7561,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7624,14 +7604,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44952</v>
+        <v>45842</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7645,11 +7625,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7686,14 +7666,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44920</v>
+        <v>45842</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7705,8 +7685,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7743,14 +7728,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45540</v>
+        <v>45859</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7748,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7800,14 +7785,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45861</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7819,8 +7804,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7857,14 +7847,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>45870</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7867,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7914,14 +7904,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45870</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7933,8 +7923,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7971,14 +7966,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>45870</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,8 +7985,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 153-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44952</v>
+        <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,39 +1095,137 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
         <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Stare
+Tallbit
+Svartvit flugsnappare
+Gråkråka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 3919-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1136,140 +1234,42 @@
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 153-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45659.61650462963</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Stare
-Tallbit
-Svartvit flugsnappare
-Gråkråka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12620-2022</t>
+          <t>A 34717-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44638</v>
+        <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,19 +1282,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1309,127 +1309,127 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 12620-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 34717-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43308-2024</t>
+          <t>A 34721-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45568</v>
+        <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,22 +1627,17 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1657,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1667,552 +1662,557 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 36366-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 31523-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44775.22490740741</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tallticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 54703-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45618</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 36366-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44277</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2362,45 +2362,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45834</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,13 +2413,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2447,45 +2447,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2497,19 +2497,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>15.3</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2537,45 +2532,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2587,8 +2582,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>11.8</v>
+        <v>15.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2622,45 +2622,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45834</v>
+        <v>44277</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2862,14 +2862,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 17263-2022</t>
+          <t>A 1910-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44678</v>
+        <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2881,8 +2881,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2926,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2981,14 +2986,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18172-2021</t>
+          <t>A 17263-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44302.62196759259</v>
+        <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3001,7 +3006,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3045,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3100,14 +3105,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 18172-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44523</v>
+        <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3119,13 +3124,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3162,14 +3162,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3181,8 +3181,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3219,14 +3224,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3239,7 +3244,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3276,14 +3281,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44658</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3296,7 +3301,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3333,14 +3338,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44569</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3352,13 +3357,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,14 +3395,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 865-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3457,14 +3457,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1910-2022</t>
+          <t>A 865-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3576,14 +3576,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17173-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44677</v>
+        <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10082-2022</t>
+          <t>A 17173-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44621</v>
+        <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3690,14 +3690,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 10082-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44747</v>
+        <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3861,14 +3861,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45716</v>
+        <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44747</v>
+        <v>44915</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3994,13 +3994,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4037,14 +4032,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44673</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4057,7 +4052,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4094,14 +4089,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44272</v>
+        <v>45540</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4113,13 +4108,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4156,14 +4146,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44851</v>
+        <v>45155</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4213,14 +4203,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44917</v>
+        <v>44951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,8 +4222,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4270,14 +4265,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44924</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,13 +4284,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4332,14 +4322,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45756</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4351,13 +4341,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4394,14 +4379,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44565</v>
+        <v>45518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4413,13 +4398,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4456,14 +4436,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45848</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4476,7 +4456,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4513,14 +4493,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44952</v>
+        <v>45716</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4532,13 +4512,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4575,14 +4550,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4595,7 +4570,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4632,14 +4607,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45518</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4652,7 +4627,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4689,14 +4664,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45387</v>
+        <v>44565</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4708,8 +4683,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>13.7</v>
+        <v>7.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4746,14 +4726,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45113</v>
+        <v>45756</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4765,8 +4745,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4803,14 +4788,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>44915</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4822,13 +4807,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4865,14 +4845,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>44915</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4885,7 +4865,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4922,14 +4902,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44905</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4941,13 +4921,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4984,14 +4959,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45719</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5003,8 +4978,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5041,14 +5021,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>44673</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5061,7 +5041,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5098,14 +5078,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>44935</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5155,14 +5135,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44920</v>
+        <v>44917</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5175,7 +5155,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5212,14 +5192,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45842</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,14 +5254,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45476</v>
+        <v>45842</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5299,7 +5279,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5336,14 +5316,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44583</v>
+        <v>45842</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5361,7 +5341,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5398,14 +5378,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44673</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5417,8 +5397,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5455,14 +5440,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45716</v>
+        <v>45859</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5475,7 +5460,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5512,14 +5497,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45861</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5531,8 +5516,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5569,14 +5559,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45397</v>
+        <v>45476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5588,8 +5578,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>13.6</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5626,14 +5621,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44915</v>
+        <v>45953</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5646,7 +5641,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5683,14 +5678,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44673</v>
+        <v>45870</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5702,8 +5697,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5740,14 +5740,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44915</v>
+        <v>45870</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5797,14 +5797,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45476</v>
+        <v>45870</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44951</v>
+        <v>45397</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5878,13 +5878,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>13.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5921,14 +5916,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44951</v>
+        <v>45166</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5940,13 +5935,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5983,14 +5973,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45848</v>
+        <v>44673</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6003,7 +5993,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6040,14 +6030,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45082</v>
+        <v>44565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6059,8 +6049,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.1</v>
+        <v>4.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6097,14 +6092,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44677</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6116,8 +6111,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44272</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6173,8 +6173,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6211,14 +6216,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6231,7 +6236,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6268,14 +6273,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45428</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6289,11 +6294,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6330,14 +6335,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45953</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6387,14 +6392,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45716</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6407,7 +6412,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6444,14 +6449,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>46002</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6464,7 +6469,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6501,14 +6506,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44935</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6521,7 +6526,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6558,14 +6563,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45166</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6578,7 +6583,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6622,7 +6627,7 @@
         <v>45499</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6677,14 +6682,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>46008</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6697,7 +6702,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>10.1</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6734,14 +6739,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45155</v>
+        <v>46008</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6754,7 +6759,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6791,14 +6796,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45428</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,13 +6815,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6853,14 +6853,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45540</v>
+        <v>45113</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6910,14 +6910,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6967,14 +6967,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>45719</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7024,14 +7024,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7043,8 +7043,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7081,14 +7086,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46002</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7101,7 +7106,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7138,14 +7143,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7158,7 +7163,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7195,14 +7200,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,8 +7219,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7252,14 +7262,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7272,7 +7282,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7309,14 +7319,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7329,7 +7339,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.6</v>
+        <v>11.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7366,14 +7376,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44565</v>
+        <v>44951</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7387,11 +7397,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7428,14 +7438,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008</v>
+        <v>44924</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7447,8 +7457,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7485,14 +7500,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>44583</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,8 +7519,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7542,14 +7562,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45842</v>
+        <v>45387</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,13 +7581,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>13.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7604,14 +7619,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45842</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,13 +7638,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7666,14 +7676,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45842</v>
+        <v>44905</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7687,11 +7697,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7728,14 +7738,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45859</v>
+        <v>44851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7748,7 +7758,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7785,14 +7795,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45861</v>
+        <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,13 +7814,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7847,14 +7852,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45870</v>
+        <v>44677</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7867,7 +7872,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7904,14 +7909,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45870</v>
+        <v>44952</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7925,11 +7930,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7966,14 +7971,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45870</v>
+        <v>44920</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7985,13 +7990,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>45499</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,14 +1070,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 153-2025</t>
+          <t>A 3919-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45659.61650462963</v>
+        <v>44952</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1119,15 +1119,109 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Tallticka
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 153-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45659.61650462963</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Stare
@@ -1136,140 +1230,46 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 3919-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44952</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Tallticka
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 34717-2025</t>
+          <t>A 12620-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45848</v>
+        <v>44638</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,19 +1282,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1309,127 +1309,127 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Taggfingersvamp
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 34717-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 12620-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44638</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Taggfingersvamp
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 34721-2025</t>
+          <t>A 31523-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45848</v>
+        <v>44775.22490740741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,17 +1628,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1662,557 +1662,557 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Garnlav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43308-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 34721-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Skuggblåslav
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 54703-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 36366-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45868</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>7.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43308-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45568</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 62578-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>46007</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>3.4</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Fällmossa
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 31523-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44775.22490740741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Skuggblåslav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 54703-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45618</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2327,8 +2327,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>11.8</v>
+        <v>15.3</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2362,45 +2367,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45834</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,13 +2418,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2447,45 +2452,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>44277</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2498,7 +2503,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2532,45 +2537,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2582,13 +2587,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>15.3</v>
+        <v>11.8</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2622,45 +2622,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44277</v>
+        <v>45834</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3105,14 +3105,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 18172-2021</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44302.62196759259</v>
+        <v>44523</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,8 +3124,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3162,14 +3167,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44523</v>
+        <v>44569</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3183,11 +3188,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3224,14 +3229,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 865-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44658</v>
+        <v>44569</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3243,8 +3248,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3281,14 +3291,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 18172-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44302.62196759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3301,7 +3311,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3338,14 +3348,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44658</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3358,7 +3368,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,14 +3405,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 13921-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44569</v>
+        <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3414,13 +3424,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3457,14 +3462,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 865-2022</t>
+          <t>A 17173-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44569</v>
+        <v>44677</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3476,13 +3481,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3519,14 +3519,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13921-2021</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44277</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3576,14 +3576,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17173-2022</t>
+          <t>A 28964-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44677</v>
+        <v>44749</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3747,14 +3747,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28964-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3804,14 +3804,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18091-2022</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44684</v>
+        <v>44747</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3861,14 +3861,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 18091-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44747</v>
+        <v>44684</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44915</v>
+        <v>45716</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>44917</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44677</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45540</v>
+        <v>45756</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4108,8 +4108,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4146,14 +4151,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45155</v>
+        <v>44952</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4165,8 +4170,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4203,14 +4213,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44951</v>
+        <v>44272</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4224,11 +4234,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4265,14 +4275,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>44851</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4285,7 +4295,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4322,14 +4332,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4342,7 +4352,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4379,14 +4389,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45518</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4399,7 +4409,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4436,14 +4446,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45848</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4455,8 +4465,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4493,14 +4508,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45716</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4512,8 +4527,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4550,14 +4570,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>45476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4569,8 +4589,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4607,14 +4632,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44924</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4626,8 +4651,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4664,14 +4694,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44565</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,13 +4713,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4726,14 +4751,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45756</v>
+        <v>44915</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,13 +4770,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4788,14 +4808,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44915</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4808,7 +4828,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4845,14 +4865,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44915</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4865,7 +4885,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4902,14 +4922,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>44935</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4922,7 +4942,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4959,14 +4979,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4978,13 +4998,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5021,14 +5036,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44673</v>
+        <v>45499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5040,8 +5055,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5078,14 +5098,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44935</v>
+        <v>45476</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5097,8 +5117,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5135,14 +5160,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44917</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5155,7 +5180,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>10.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5192,14 +5217,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45842</v>
+        <v>45155</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5211,13 +5236,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5254,14 +5274,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45842</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5279,7 +5299,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5316,14 +5336,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45842</v>
+        <v>44673</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5335,13 +5355,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5378,14 +5393,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45428</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5403,7 +5418,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5440,14 +5455,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45859</v>
+        <v>45113</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5460,7 +5475,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5497,14 +5512,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45861</v>
+        <v>45540</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5516,13 +5531,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5559,14 +5569,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45476</v>
+        <v>44565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5584,7 +5594,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5621,14 +5631,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45953</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5641,7 +5651,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5678,14 +5688,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45870</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5697,13 +5707,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5740,14 +5745,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45870</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5760,7 +5765,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5797,14 +5802,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45870</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5816,13 +5821,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45397</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5878,8 +5878,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>13.6</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5916,14 +5921,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45166</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5936,7 +5941,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5973,14 +5978,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44673</v>
+        <v>44583</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5992,8 +5997,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6030,14 +6040,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44565</v>
+        <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6049,13 +6059,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6092,14 +6097,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>45518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6111,13 +6116,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44272</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6173,13 +6173,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6216,14 +6211,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45387</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6236,7 +6231,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>13.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6273,14 +6268,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45428</v>
+        <v>44915</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6292,13 +6287,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6335,14 +6325,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>44920</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6355,7 +6345,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6392,14 +6382,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45716</v>
+        <v>45848</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6412,7 +6402,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6449,14 +6439,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 16738-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46002</v>
+        <v>44673</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6459,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6506,14 +6496,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6526,7 +6516,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6563,14 +6553,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6583,7 +6573,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6620,14 +6610,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45499</v>
+        <v>44565</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6635,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6682,14 +6672,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46008</v>
+        <v>44905</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6701,8 +6691,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6739,14 +6734,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46008</v>
+        <v>45719</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6754,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6796,14 +6791,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6811,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6853,14 +6848,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45113</v>
+        <v>45953</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6868,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6910,14 +6905,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>44673</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6925,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6967,14 +6962,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45719</v>
+        <v>45842</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6986,8 +6981,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7024,14 +7024,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45842</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7045,11 +7045,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45842</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7105,8 +7105,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7143,14 +7148,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45082</v>
+        <v>45397</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7168,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.1</v>
+        <v>13.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7200,14 +7205,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45476</v>
+        <v>45859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7219,13 +7224,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7262,14 +7262,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45861</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7281,8 +7281,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7319,14 +7324,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45870</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7339,7 +7344,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>11.2</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7376,14 +7381,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44951</v>
+        <v>45870</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7397,11 +7402,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7438,14 +7443,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44924</v>
+        <v>45870</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7463,7 +7468,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7500,14 +7505,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44583</v>
+        <v>44915</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7519,13 +7524,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7562,14 +7562,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45387</v>
+        <v>44951</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7581,8 +7581,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>13.7</v>
+        <v>4.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7619,14 +7624,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7638,8 +7643,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7676,14 +7686,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44905</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7695,13 +7705,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7738,14 +7743,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44851</v>
+        <v>46002</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7763,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7795,14 +7800,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16738-2022</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44673</v>
+        <v>45082</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7820,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7852,14 +7857,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44677</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7877,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7909,14 +7914,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44952</v>
+        <v>46008</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,13 +7933,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7971,14 +7971,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44920</v>
+        <v>46008</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,14 +784,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 31015-2024</t>
+          <t>A 62573-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45499</v>
+        <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,23 +803,18 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -833,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -842,6 +837,197 @@
         <v>7</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Slåtterfibbla
+Svartvit flugsnappare
+Ärtsångare
+Vårärt
+Större brunfladdermus
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62642-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46008.37217592593</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grön aspvedbock
+Björksplintborre
+Bronshjon
+Dvärgtufs
+Granbarkgnagare
+Mindre märgborre
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 31015-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45499</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka
@@ -852,232 +1038,46 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31015-2024 artfynd.xlsx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31015-2024 karta.png", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31015-2024 FSC-klagomål.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31015-2024 FSC-klagomål mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31015-2024 tillsynsbegäran.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31015-2024 tillsynsbegäran mail.docx", "A 31015-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 31015-2024 prioriterade fågelarter.docx", "A 31015-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62573-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46007.73069444444</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Slåtterfibbla
-Svartvit flugsnappare
-Ärtsångare
-Vårärt
-Större brunfladdermus
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62573-2025 artfynd.xlsx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62573-2025 karta.png", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62573-2025 FSC-klagomål.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62573-2025 FSC-klagomål mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62573-2025 tillsynsbegäran.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62573-2025 tillsynsbegäran mail.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 62573-2025 prioriterade fågelarter.docx", "A 62573-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 62642-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46008.37217592593</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grön aspvedbock
-Björksplintborre
-Bronshjon
-Dvärgtufs
-Granbarkgnagare
-Mindre märgborre
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62642-2025 artfynd.xlsx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62642-2025 karta.png", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62642-2025 FSC-klagomål.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62642-2025 FSC-klagomål mail.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62642-2025 tillsynsbegäran.docx", "A 62642-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62642-2025 tillsynsbegäran mail.docx", "A 62642-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3919-2023</t>
+          <t>A 153-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44952</v>
+        <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,39 +1095,137 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
         <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönfink
+Stare
+Tallbit
+Svartvit flugsnappare
+Gråkråka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 3919-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1136,140 +1234,42 @@
 Större brunfladdermus</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3919-2023 artfynd.xlsx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3919-2023 karta.png", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3919-2023 FSC-klagomål.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3919-2023 FSC-klagomål mail.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3919-2023 tillsynsbegäran.docx", "A 3919-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3919-2023 tillsynsbegäran mail.docx", "A 3919-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 153-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45659.61650462963</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Grönfink
-Stare
-Tallbit
-Svartvit flugsnappare
-Gråkråka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 153-2025 artfynd.xlsx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 153-2025 karta.png", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 153-2025 FSC-klagomål.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 153-2025 FSC-klagomål mail.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 153-2025 tillsynsbegäran.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 153-2025 tillsynsbegäran mail.docx", "A 153-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 153-2025 prioriterade fågelarter.docx", "A 153-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12620-2022</t>
+          <t>A 34717-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44638</v>
+        <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,19 +1282,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1309,127 +1309,127 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 12620-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Taggfingersvamp
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 12620-2022 artfynd.xlsx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 12620-2022 karta.png", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 12620-2022 FSC-klagomål.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 12620-2022 FSC-klagomål mail.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 12620-2022 tillsynsbegäran.docx", "A 12620-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 12620-2022 tillsynsbegäran mail.docx", "A 12620-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 34717-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34717-2025 artfynd.xlsx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34717-2025 karta.png", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34717-2025 FSC-klagomål.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34717-2025 FSC-klagomål mail.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34717-2025 tillsynsbegäran.docx", "A 34717-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34717-2025 tillsynsbegäran mail.docx", "A 34717-2025")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,14 +1608,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 31523-2022</t>
+          <t>A 34721-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44775.22490740741</v>
+        <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,16 +1628,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1662,557 +1662,557 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Skuggblåslav
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 31523-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44775.22490740741</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Garnlav
 Tallticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31523-2022 artfynd.xlsx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31523-2022 karta.png", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31523-2022 FSC-klagomål.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31523-2022 FSC-klagomål mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31523-2022 tillsynsbegäran.docx", "A 31523-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31523-2022 tillsynsbegäran mail.docx", "A 31523-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 36366-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45868</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 43308-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45568</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>3.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 43308-2024 artfynd.xlsx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 43308-2024 karta.png", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 43308-2024 FSC-klagomål.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 43308-2024 FSC-klagomål mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 43308-2024 tillsynsbegäran.docx", "A 43308-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 43308-2024 tillsynsbegäran mail.docx", "A 43308-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 34721-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 62578-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Skuggblåslav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 34721-2025 artfynd.xlsx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 34721-2025 karta.png", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 34721-2025 FSC-klagomål.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 34721-2025 FSC-klagomål mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 34721-2025 tillsynsbegäran.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 34721-2025 tillsynsbegäran mail.docx", "A 34721-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Fällmossa
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 54703-2024</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45618</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>7.7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>2</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 54703-2024 artfynd.xlsx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 54703-2024 karta.png", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 54703-2024 FSC-klagomål.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 54703-2024 FSC-klagomål mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 54703-2024 tillsynsbegäran.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 54703-2024 tillsynsbegäran mail.docx", "A 54703-2024")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/fåglar/A 54703-2024 prioriterade fågelarter.docx", "A 54703-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 36366-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45868</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 61363-2022</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÖSTERÅKER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 36366-2025 artfynd.xlsx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 36366-2025 karta.png", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 36366-2025 FSC-klagomål.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 36366-2025 FSC-klagomål mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 36366-2025 tillsynsbegäran.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 36366-2025 tillsynsbegäran mail.docx", "A 36366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 61363-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44915</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Skuggblåslav</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 61363-2022 artfynd.xlsx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 61363-2022 karta.png", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 61363-2022 FSC-klagomål.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 61363-2022 FSC-klagomål mail.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 61363-2022 tillsynsbegäran.docx", "A 61363-2022")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 61363-2022 tillsynsbegäran mail.docx", "A 61363-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 62578-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46007</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÖSTERÅKER</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Fällmossa
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 62578-2025 artfynd.xlsx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 62578-2025 karta.png", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 62578-2025 FSC-klagomål.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 62578-2025 FSC-klagomål mail.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 62578-2025 tillsynsbegäran.docx", "A 62578-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 62578-2025 tillsynsbegäran mail.docx", "A 62578-2025")</f>
         <v/>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2308,14 +2308,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3914-2023</t>
+          <t>A 38968-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44952.30934027778</v>
+        <v>45887.70863425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2327,19 +2327,14 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>15.3</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2367,45 +2362,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38968-2025</t>
+          <t>A 27921-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45887.70863425926</v>
+        <v>45817.4846875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2418,13 +2413,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>11.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2452,45 +2447,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 38968-2025 artfynd.xlsx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 38968-2025 karta.png", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 38968-2025 FSC-klagomål.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 38968-2025 FSC-klagomål mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 38968-2025 tillsynsbegäran.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 38968-2025 tillsynsbegäran mail.docx", "A 38968-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13942-2021</t>
+          <t>A 31716-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44277</v>
+        <v>45834</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2503,13 +2498,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2537,45 +2532,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Skogsbräsma</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27921-2025</t>
+          <t>A 13942-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45817.4846875</v>
+        <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2588,13 +2583,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2622,45 +2617,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Skogsbräsma</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 27921-2025 artfynd.xlsx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 13942-2021 artfynd.xlsx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 27921-2025 karta.png", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 13942-2021 karta.png", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 27921-2025 FSC-klagomål.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 13942-2021 FSC-klagomål.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 27921-2025 FSC-klagomål mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 13942-2021 FSC-klagomål mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 27921-2025 tillsynsbegäran.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 13942-2021 tillsynsbegäran.docx", "A 13942-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 27921-2025 tillsynsbegäran mail.docx", "A 27921-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 13942-2021 tillsynsbegäran mail.docx", "A 13942-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31716-2025</t>
+          <t>A 3914-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45834</v>
+        <v>44952.30934027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2672,8 +2667,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>15.3</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2707,31 +2707,31 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 31716-2025 artfynd.xlsx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/artfynd/A 3914-2023 artfynd.xlsx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 31716-2025 karta.png", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/kartor/A 3914-2023 karta.png", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 31716-2025 FSC-klagomål.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomål/A 3914-2023 FSC-klagomål.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 31716-2025 FSC-klagomål mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/klagomålsmail/A 3914-2023 FSC-klagomål mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 31716-2025 tillsynsbegäran.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsyn/A 3914-2023 tillsynsbegäran.docx", "A 3914-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 31716-2025 tillsynsbegäran mail.docx", "A 31716-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0117/tillsynsmail/A 3914-2023 tillsynsbegäran mail.docx", "A 3914-2023")</f>
         <v/>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3105,14 +3105,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 67244-2021</t>
+          <t>A 18172-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44523</v>
+        <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3124,13 +3124,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3167,14 +3162,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 838-2022</t>
+          <t>A 67244-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44569</v>
+        <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3188,11 +3183,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3229,14 +3224,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 865-2022</t>
+          <t>A 15131-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44569</v>
+        <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3248,13 +3243,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3291,14 +3281,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18172-2021</t>
+          <t>A 19934-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44302.62196759259</v>
+        <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3311,7 +3301,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3348,14 +3338,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15131-2022</t>
+          <t>A 19944-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44658</v>
+        <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3368,7 +3358,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3405,14 +3395,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13921-2021</t>
+          <t>A 865-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44277</v>
+        <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3424,8 +3414,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3462,14 +3457,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17173-2022</t>
+          <t>A 838-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44677</v>
+        <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3481,8 +3476,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3519,14 +3519,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19934-2022</t>
+          <t>A 13921-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44697.46248842592</v>
+        <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3576,14 +3576,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19944-2022</t>
+          <t>A 28405-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44697.47424768518</v>
+        <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28964-2022</t>
+          <t>A 17173-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44749</v>
+        <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3747,14 +3747,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28405-2022</t>
+          <t>A 28964-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44747</v>
+        <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3804,14 +3804,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28399-2022</t>
+          <t>A 18091-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44747</v>
+        <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3861,14 +3861,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18091-2022</t>
+          <t>A 28399-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44684</v>
+        <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3918,14 +3918,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 9865-2025</t>
+          <t>A 13118-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45716</v>
+        <v>44272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3937,8 +3937,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3975,14 +3980,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61710-2022</t>
+          <t>A 46688-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44917</v>
+        <v>44851</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3995,7 +4000,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4032,14 +4037,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17196-2022</t>
+          <t>A 9865-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44677</v>
+        <v>45716</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4052,7 +4057,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4089,14 +4094,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17353-2025</t>
+          <t>A 22080-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45756</v>
+        <v>45443.64962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4114,7 +4119,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4151,14 +4156,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3917-2023</t>
+          <t>A 28143-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44952</v>
+        <v>45476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4172,11 +4177,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4213,14 +4218,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13118-2021</t>
+          <t>A 61323-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44272</v>
+        <v>44915</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,13 +4237,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4275,14 +4275,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46688-2022</t>
+          <t>A 28146-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44851</v>
+        <v>45476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4294,8 +4294,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4332,14 +4337,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1603-2023</t>
+          <t>A 22528-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44937.68086805556</v>
+        <v>45447.44967592593</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4351,8 +4356,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4389,14 +4399,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1605-2023</t>
+          <t>A 16803-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44937.68299768519</v>
+        <v>44673</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4409,7 +4419,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4446,14 +4456,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 67265-2021</t>
+          <t>A 27137-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44523.59277777778</v>
+        <v>45811.95890046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4465,13 +4475,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4508,14 +4513,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22080-2024</t>
+          <t>A 27948-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45443.64962962963</v>
+        <v>45817.52460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4527,13 +4532,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4570,14 +4570,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28143-2024</t>
+          <t>A 464-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45476</v>
+        <v>44565</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4632,14 +4632,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 544-2023</t>
+          <t>A 61710-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44924</v>
+        <v>44917</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4651,13 +4651,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4694,14 +4689,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 5286-2025</t>
+          <t>A 17353-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45692.44144675926</v>
+        <v>45756</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4713,8 +4708,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>11.2</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4751,14 +4751,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61323-2022</t>
+          <t>A 31456-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44915</v>
+        <v>45833.5402662037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6655-2023</t>
+          <t>A 3917-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44966.60668981481</v>
+        <v>44952</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4827,8 +4827,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4865,14 +4870,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18711-2023</t>
+          <t>A 34034-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45043.6433912037</v>
+        <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4884,8 +4889,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4922,14 +4932,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1136-2023</t>
+          <t>A 34038-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44935</v>
+        <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4941,8 +4951,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4979,14 +4994,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39394-2023</t>
+          <t>A 34079-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45166</v>
+        <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4998,8 +5013,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5036,14 +5056,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30949-2024</t>
+          <t>A 34713-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45499</v>
+        <v>45848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5055,13 +5075,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5098,14 +5113,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28146-2024</t>
+          <t>A 35656-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45476</v>
+        <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5117,13 +5132,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5160,14 +5170,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 845-2024</t>
+          <t>A 35819-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45300.91423611111</v>
+        <v>45861</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5179,8 +5189,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>10.1</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5217,14 +5232,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37037-2023</t>
+          <t>A 36614-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45155</v>
+        <v>45870</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5252,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5274,14 +5289,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 22528-2024</t>
+          <t>A 36612-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45447.44967592593</v>
+        <v>45870</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5299,7 +5314,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5336,14 +5351,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16803-2022</t>
+          <t>A 36611-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44673</v>
+        <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5355,8 +5370,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5393,14 +5413,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19404-2024</t>
+          <t>A 544-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45428</v>
+        <v>44924</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5418,7 +5438,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5455,14 +5475,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31134-2023</t>
+          <t>A 470-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45113</v>
+        <v>44565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5474,8 +5494,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5512,14 +5537,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37244-2024</t>
+          <t>A 31575-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45540</v>
+        <v>44775.45063657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5532,7 +5557,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5569,14 +5594,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 470-2022</t>
+          <t>A 52220-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44565</v>
+        <v>45953</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5588,13 +5613,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5631,14 +5651,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57048-2024</t>
+          <t>A 33158-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45629.33938657407</v>
+        <v>45518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5671,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5688,14 +5708,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57055-2024</t>
+          <t>A 13366-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45629.34627314815</v>
+        <v>45387</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5728,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>13.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,14 +5765,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21786-2025</t>
+          <t>A 61360-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45783.67215277778</v>
+        <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5785,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5802,14 +5822,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21796-2025</t>
+          <t>A 62108-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45783.68135416666</v>
+        <v>44920</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5842,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5859,14 +5879,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23144-2024</t>
+          <t>A 6655-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45450.63202546296</v>
+        <v>44966.60668981481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5878,13 +5898,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5921,14 +5936,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31575-2022</t>
+          <t>A 31134-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44775.45063657407</v>
+        <v>45113</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5956,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5978,14 +5993,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3326-2022</t>
+          <t>A 57048-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44583</v>
+        <v>45629.33938657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5997,13 +6012,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6040,14 +6050,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9842-2025</t>
+          <t>A 57055-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45716</v>
+        <v>45629.34627314815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6060,7 +6070,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6097,14 +6107,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33158-2024</t>
+          <t>A 23144-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45518</v>
+        <v>45450.63202546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6116,8 +6126,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6154,14 +6169,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56909-2024</t>
+          <t>A 60482-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45628.59060185185</v>
+        <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6174,7 +6189,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6211,14 +6226,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13366-2024</t>
+          <t>A 3326-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45387</v>
+        <v>44583</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6230,8 +6245,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>13.7</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6268,14 +6288,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61360-2022</t>
+          <t>A 9842-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44915</v>
+        <v>45716</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6288,7 +6308,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6325,14 +6345,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62108-2022</t>
+          <t>A 56909-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44920</v>
+        <v>45628.59060185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6345,7 +6365,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6382,14 +6402,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34713-2025</t>
+          <t>A 61781-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45848</v>
+        <v>46002</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6402,7 +6422,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6446,7 +6466,7 @@
         <v>44673</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6496,14 +6516,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27137-2025</t>
+          <t>A 5038-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45811.95890046296</v>
+        <v>46049.46427083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6516,7 +6536,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6553,14 +6573,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27948-2025</t>
+          <t>A 59379-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45817.52460648148</v>
+        <v>44905</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,8 +6592,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6610,14 +6635,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 464-2022</t>
+          <t>A 62831-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44565</v>
+        <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6629,13 +6654,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6672,14 +6692,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59379-2022</t>
+          <t>A 10185-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44905</v>
+        <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,13 +6711,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6734,14 +6749,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10185-2025</t>
+          <t>A 62839-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45719</v>
+        <v>46008</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6754,7 +6769,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6791,14 +6806,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31456-2025</t>
+          <t>A 16728-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45833.5402662037</v>
+        <v>44673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6811,7 +6826,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6848,14 +6863,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52220-2025</t>
+          <t>A 14776-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45953</v>
+        <v>45397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6868,7 +6883,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>13.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6905,14 +6920,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16728-2022</t>
+          <t>A 61370-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44673</v>
+        <v>44915</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6925,7 +6940,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6962,14 +6977,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34034-2025</t>
+          <t>A 3817-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45842</v>
+        <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6983,11 +6998,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7024,14 +7039,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34038-2025</t>
+          <t>A 3828-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45842</v>
+        <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7045,11 +7060,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7086,14 +7101,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34079-2025</t>
+          <t>A 24499-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45842</v>
+        <v>45082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7105,13 +7120,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7148,14 +7158,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14776-2024</t>
+          <t>A 17196-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45397</v>
+        <v>44677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7178,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>13.6</v>
+        <v>5.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7205,14 +7215,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35656-2025</t>
+          <t>A 1603-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45859</v>
+        <v>44937.68086805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7235,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7262,14 +7272,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35819-2025</t>
+          <t>A 1605-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45861</v>
+        <v>44937.68299768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7281,13 +7291,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7324,14 +7329,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36614-2025</t>
+          <t>A 67265-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45870</v>
+        <v>44523.59277777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7343,8 +7348,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7381,14 +7391,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36612-2025</t>
+          <t>A 5286-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45870</v>
+        <v>45692.44144675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7400,13 +7410,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>11.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7443,14 +7448,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36611-2025</t>
+          <t>A 18711-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45870</v>
+        <v>45043.6433912037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7462,13 +7467,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7505,14 +7505,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61370-2022</t>
+          <t>A 1136-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44915</v>
+        <v>44935</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7562,14 +7562,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3817-2023</t>
+          <t>A 39394-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44951</v>
+        <v>45166</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7581,13 +7581,8 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7624,14 +7619,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3828-2023</t>
+          <t>A 30949-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44951</v>
+        <v>45499</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7645,7 +7640,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -7686,14 +7681,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60482-2025</t>
+          <t>A 845-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45995.59832175926</v>
+        <v>45300.91423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7701,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7743,14 +7738,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61781-2025</t>
+          <t>A 37037-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46002</v>
+        <v>45155</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7758,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7800,14 +7795,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24499-2023</t>
+          <t>A 19404-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45082</v>
+        <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7819,8 +7814,13 @@
           <t>ÖSTERÅKER</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7857,14 +7857,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5038-2026</t>
+          <t>A 37244-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46049.46427083333</v>
+        <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7914,14 +7914,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62831-2025</t>
+          <t>A 21786-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46008</v>
+        <v>45783.67215277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7971,14 +7971,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62839-2025</t>
+          <t>A 21796-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46008</v>
+        <v>45783.68135416666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45499</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45868</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45568</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>46007</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45618</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45834</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44851</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45716</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44915</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44673</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44917</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45756</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44952</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45861</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45870</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45870</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44924</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45953</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45387</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44920</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45113</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44583</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45716</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>46002</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44673</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44905</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>46008</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44915</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44935</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45166</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45499</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÖSTERÅKER.xlsx
+++ b/Översikt ÖSTERÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45583</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>45833</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>46007.73069444444</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>46008.37217592593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45499</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45659.61650462963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44952</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44638</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44678</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44498</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45848</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44775.22490740741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45868</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45568</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>46007</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45618</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44915</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44712</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45887.70863425926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45817.4846875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45834</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44277</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44952.30934027778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>44575</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44575</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44544</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44678</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44302.62196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
         <v>44523</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44658</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44697.46248842592</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44697.47424768518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44569</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>44569</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>44277</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>44677</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44621</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44851</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45716</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>45443.64962962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44915</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45447.44967592593</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44673</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45811.95890046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45817.52460648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44565</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44917</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45756</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45833.5402662037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44952</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45842</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45842</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45842</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45848</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45861</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45870</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45870</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45870</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44924</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>44775.45063657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45953</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45387</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44915</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44920</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44966.60668981481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45113</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45629.33938657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45629.34627314815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45450.63202546296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45995.59832175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44583</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45716</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>45628.59060185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>46002</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44673</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>46049.46427083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44905</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>46008</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45719</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>46008</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44915</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45082</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44677</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44937.68086805556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44937.68299768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>44523.59277777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45692.44144675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45043.6433912037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44935</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45166</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45499</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45300.91423611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45540</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45783.67215277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45783.68135416666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
